--- a/Engine/Tables/SaleItemInfoTable.xlsx
+++ b/Engine/Tables/SaleItemInfoTable.xlsx
@@ -13,13 +13,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Replace</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Desc</t>
-  </si>
-  <si>
-    <t>Replace</t>
   </si>
   <si>
     <t>Price</t>
@@ -37,13 +40,10 @@
     <t>ItemKinds_01</t>
   </si>
   <si>
-    <t>Description</t>
+    <t>샘플 판매 아이템 정보</t>
   </si>
   <si>
     <t>Sample</t>
-  </si>
-  <si>
-    <t>샘플 판매 아이템 정보</t>
   </si>
 </sst>
 </file>
@@ -299,8 +299,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="8" width="14.43"/>
-    <col customWidth="1" min="9" max="9" width="17.57"/>
+    <col customWidth="1" min="1" max="1" width="17.57"/>
+    <col customWidth="1" min="2" max="9" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
@@ -322,13 +322,13 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -336,902 +336,902 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="1">
         <v>0.0</v>
       </c>
-      <c r="D2" s="1">
-        <v>0.0</v>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E2" s="1">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F2" s="1">
         <v>-1.0</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="H2" s="2">
         <v>0.0</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>-1.0</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="3" ht="15.0" customHeight="1">
-      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" ht="15.0" customHeight="1">
-      <c r="G4" s="2"/>
       <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" ht="15.0" customHeight="1">
-      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" ht="15.0" customHeight="1">
-      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" ht="15.0" customHeight="1">
-      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" ht="15.0" customHeight="1">
-      <c r="G8" s="2"/>
       <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" ht="15.0" customHeight="1">
-      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" ht="15.0" customHeight="1">
-      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" ht="15.0" customHeight="1">
-      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" ht="15.0" customHeight="1">
-      <c r="G12" s="2"/>
       <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" ht="15.0" customHeight="1">
-      <c r="G13" s="2"/>
       <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" ht="15.0" customHeight="1">
-      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" ht="15.0" customHeight="1">
-      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" ht="15.0" customHeight="1">
-      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" ht="15.0" customHeight="1">
-      <c r="G17" s="2"/>
       <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" ht="15.0" customHeight="1">
-      <c r="G18" s="2"/>
       <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" ht="15.0" customHeight="1">
-      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" ht="15.0" customHeight="1">
-      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" ht="15.0" customHeight="1">
-      <c r="G21" s="2"/>
       <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" ht="15.0" customHeight="1">
-      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" ht="15.0" customHeight="1">
-      <c r="G23" s="2"/>
       <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" ht="15.0" customHeight="1">
-      <c r="G24" s="2"/>
       <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
     </row>
     <row r="25" ht="15.0" customHeight="1">
-      <c r="G25" s="2"/>
       <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
     </row>
     <row r="26" ht="15.0" customHeight="1">
-      <c r="G26" s="2"/>
       <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" ht="15.0" customHeight="1">
-      <c r="G27" s="2"/>
       <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
     </row>
     <row r="28" ht="15.0" customHeight="1">
-      <c r="G28" s="2"/>
       <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
     </row>
     <row r="29" ht="15.0" customHeight="1">
-      <c r="G29" s="2"/>
       <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
     </row>
     <row r="30" ht="15.0" customHeight="1">
-      <c r="G30" s="2"/>
       <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
     </row>
     <row r="31" ht="15.0" customHeight="1">
-      <c r="G31" s="2"/>
       <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
     </row>
     <row r="32" ht="15.0" customHeight="1">
-      <c r="G32" s="2"/>
       <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
     </row>
     <row r="33" ht="15.0" customHeight="1">
-      <c r="G33" s="2"/>
       <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
     </row>
     <row r="34" ht="15.0" customHeight="1">
-      <c r="G34" s="2"/>
       <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
     </row>
     <row r="35" ht="15.0" customHeight="1">
-      <c r="G35" s="2"/>
       <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
     </row>
     <row r="36" ht="15.0" customHeight="1">
-      <c r="G36" s="2"/>
       <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
     </row>
     <row r="37" ht="15.0" customHeight="1">
-      <c r="G37" s="2"/>
       <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
     </row>
     <row r="38" ht="15.0" customHeight="1">
-      <c r="G38" s="2"/>
       <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
     </row>
     <row r="39" ht="15.0" customHeight="1">
-      <c r="G39" s="2"/>
       <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
     </row>
     <row r="40" ht="15.0" customHeight="1">
-      <c r="G40" s="2"/>
       <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
     </row>
     <row r="41" ht="15.0" customHeight="1">
-      <c r="G41" s="2"/>
       <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
     </row>
     <row r="42" ht="15.0" customHeight="1">
-      <c r="G42" s="2"/>
       <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
     </row>
     <row r="43" ht="15.0" customHeight="1">
-      <c r="G43" s="2"/>
       <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
     </row>
     <row r="44" ht="15.0" customHeight="1">
-      <c r="G44" s="2"/>
       <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
     </row>
     <row r="45" ht="15.0" customHeight="1">
-      <c r="G45" s="2"/>
       <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
     </row>
     <row r="46" ht="15.0" customHeight="1">
-      <c r="G46" s="2"/>
       <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
     </row>
     <row r="47" ht="15.0" customHeight="1">
-      <c r="G47" s="2"/>
       <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
     </row>
     <row r="48" ht="15.0" customHeight="1">
-      <c r="G48" s="2"/>
       <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
     </row>
     <row r="49" ht="15.0" customHeight="1">
-      <c r="G49" s="2"/>
       <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
     </row>
     <row r="50" ht="15.0" customHeight="1">
-      <c r="G50" s="2"/>
       <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
     </row>
     <row r="51" ht="15.0" customHeight="1">
-      <c r="G51" s="2"/>
       <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
     </row>
     <row r="52" ht="15.0" customHeight="1">
-      <c r="G52" s="2"/>
       <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
     </row>
     <row r="53" ht="15.0" customHeight="1">
-      <c r="G53" s="2"/>
       <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
     </row>
     <row r="54" ht="15.0" customHeight="1">
-      <c r="G54" s="2"/>
       <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
     </row>
     <row r="55" ht="15.0" customHeight="1">
-      <c r="G55" s="2"/>
       <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
     </row>
     <row r="56" ht="15.0" customHeight="1">
-      <c r="G56" s="2"/>
       <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
     </row>
     <row r="57" ht="15.0" customHeight="1">
-      <c r="G57" s="2"/>
       <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
     </row>
     <row r="58" ht="15.0" customHeight="1">
-      <c r="G58" s="2"/>
       <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
     </row>
     <row r="59" ht="15.0" customHeight="1">
-      <c r="G59" s="2"/>
       <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
     </row>
     <row r="60" ht="15.0" customHeight="1">
-      <c r="G60" s="2"/>
       <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
     </row>
     <row r="61" ht="15.0" customHeight="1">
-      <c r="G61" s="2"/>
       <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
     </row>
     <row r="62" ht="15.0" customHeight="1">
-      <c r="G62" s="2"/>
       <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
     </row>
     <row r="63" ht="15.0" customHeight="1">
-      <c r="G63" s="2"/>
       <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
     </row>
     <row r="64" ht="15.0" customHeight="1">
-      <c r="G64" s="2"/>
       <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
     </row>
     <row r="65" ht="15.0" customHeight="1">
-      <c r="G65" s="2"/>
       <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
     </row>
     <row r="66" ht="15.0" customHeight="1">
-      <c r="G66" s="2"/>
       <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
     </row>
     <row r="67" ht="15.0" customHeight="1">
-      <c r="G67" s="2"/>
       <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
     </row>
     <row r="68" ht="15.0" customHeight="1">
-      <c r="G68" s="2"/>
       <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
     </row>
     <row r="69" ht="15.0" customHeight="1">
-      <c r="G69" s="2"/>
       <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
     </row>
     <row r="70" ht="15.0" customHeight="1">
-      <c r="G70" s="2"/>
       <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
     </row>
     <row r="71" ht="15.0" customHeight="1">
-      <c r="G71" s="2"/>
       <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
     </row>
     <row r="72" ht="15.0" customHeight="1">
-      <c r="G72" s="2"/>
       <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
     </row>
     <row r="73" ht="15.0" customHeight="1">
-      <c r="G73" s="2"/>
       <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
     </row>
     <row r="74" ht="15.0" customHeight="1">
-      <c r="G74" s="2"/>
       <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
     </row>
     <row r="75" ht="15.0" customHeight="1">
-      <c r="G75" s="2"/>
       <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
     </row>
     <row r="76" ht="15.0" customHeight="1">
-      <c r="G76" s="2"/>
       <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
     </row>
     <row r="77" ht="15.0" customHeight="1">
-      <c r="G77" s="2"/>
       <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
     </row>
     <row r="78" ht="15.0" customHeight="1">
-      <c r="G78" s="2"/>
       <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
     </row>
     <row r="79" ht="15.0" customHeight="1">
-      <c r="G79" s="2"/>
       <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
     </row>
     <row r="80" ht="15.0" customHeight="1">
-      <c r="G80" s="2"/>
       <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
     </row>
     <row r="81" ht="15.0" customHeight="1">
-      <c r="G81" s="2"/>
       <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
     </row>
     <row r="82" ht="15.0" customHeight="1">
-      <c r="G82" s="2"/>
       <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
     </row>
     <row r="83" ht="15.0" customHeight="1">
-      <c r="G83" s="2"/>
       <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
     </row>
     <row r="84" ht="15.0" customHeight="1">
-      <c r="G84" s="2"/>
       <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
     </row>
     <row r="85" ht="15.0" customHeight="1">
-      <c r="G85" s="2"/>
       <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
     </row>
     <row r="86" ht="15.0" customHeight="1">
-      <c r="G86" s="2"/>
       <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
     </row>
     <row r="87" ht="15.0" customHeight="1">
-      <c r="G87" s="2"/>
       <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
     </row>
     <row r="88" ht="15.0" customHeight="1">
-      <c r="G88" s="2"/>
       <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
     </row>
     <row r="89" ht="15.0" customHeight="1">
-      <c r="G89" s="2"/>
       <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
     </row>
     <row r="90" ht="15.0" customHeight="1">
-      <c r="G90" s="2"/>
       <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
     </row>
     <row r="91" ht="15.0" customHeight="1">
-      <c r="G91" s="2"/>
       <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
     </row>
     <row r="92" ht="15.0" customHeight="1">
-      <c r="G92" s="2"/>
       <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
     </row>
     <row r="93" ht="15.0" customHeight="1">
-      <c r="G93" s="2"/>
       <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
     </row>
     <row r="94" ht="15.0" customHeight="1">
-      <c r="G94" s="2"/>
       <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
     </row>
     <row r="95" ht="15.0" customHeight="1">
-      <c r="G95" s="2"/>
       <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
     </row>
     <row r="96" ht="15.0" customHeight="1">
-      <c r="G96" s="2"/>
       <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
     </row>
     <row r="97" ht="15.0" customHeight="1">
-      <c r="G97" s="2"/>
       <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
     </row>
     <row r="98" ht="15.0" customHeight="1">
-      <c r="G98" s="2"/>
       <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
     </row>
     <row r="99" ht="15.0" customHeight="1">
-      <c r="G99" s="2"/>
       <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
     </row>
     <row r="100" ht="15.0" customHeight="1">
-      <c r="G100" s="2"/>
       <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
     </row>
     <row r="101" ht="15.0" customHeight="1">
-      <c r="G101" s="2"/>
       <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
     </row>
     <row r="102" ht="15.0" customHeight="1">
-      <c r="G102" s="2"/>
       <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
     </row>
     <row r="103" ht="15.0" customHeight="1">
-      <c r="G103" s="2"/>
       <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
     </row>
     <row r="104" ht="15.0" customHeight="1">
-      <c r="G104" s="2"/>
       <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
     </row>
     <row r="105" ht="15.0" customHeight="1">
-      <c r="G105" s="2"/>
       <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
     </row>
     <row r="106" ht="15.0" customHeight="1">
-      <c r="G106" s="2"/>
       <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
     </row>
     <row r="107" ht="15.0" customHeight="1">
-      <c r="G107" s="2"/>
       <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
     </row>
     <row r="108" ht="15.0" customHeight="1">
-      <c r="G108" s="2"/>
       <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
     </row>
     <row r="109" ht="15.0" customHeight="1">
-      <c r="G109" s="2"/>
       <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
     </row>
     <row r="110" ht="15.0" customHeight="1">
-      <c r="G110" s="2"/>
       <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
     </row>
     <row r="111" ht="15.0" customHeight="1">
-      <c r="G111" s="2"/>
       <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
     </row>
     <row r="112" ht="15.0" customHeight="1">
-      <c r="G112" s="2"/>
       <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
     </row>
     <row r="113" ht="15.0" customHeight="1">
-      <c r="G113" s="2"/>
       <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
     </row>
     <row r="114" ht="15.0" customHeight="1">
-      <c r="G114" s="2"/>
       <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
     </row>
     <row r="115" ht="15.0" customHeight="1">
-      <c r="G115" s="2"/>
       <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
     </row>
     <row r="116" ht="15.0" customHeight="1">
-      <c r="G116" s="2"/>
       <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
     </row>
     <row r="117" ht="15.0" customHeight="1">
-      <c r="G117" s="2"/>
       <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
     </row>
     <row r="118" ht="15.0" customHeight="1">
-      <c r="G118" s="2"/>
       <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
     </row>
     <row r="119" ht="15.0" customHeight="1">
-      <c r="G119" s="2"/>
       <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
     </row>
     <row r="120" ht="15.0" customHeight="1">
-      <c r="G120" s="2"/>
       <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
     </row>
     <row r="121" ht="15.0" customHeight="1">
-      <c r="G121" s="2"/>
       <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
     </row>
     <row r="122" ht="15.0" customHeight="1">
-      <c r="G122" s="2"/>
       <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
     </row>
     <row r="123" ht="15.0" customHeight="1">
-      <c r="G123" s="2"/>
       <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
     </row>
     <row r="124" ht="15.0" customHeight="1">
-      <c r="G124" s="2"/>
       <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
     </row>
     <row r="125" ht="15.0" customHeight="1">
-      <c r="G125" s="2"/>
       <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
     </row>
     <row r="126" ht="15.0" customHeight="1">
-      <c r="G126" s="2"/>
       <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
     </row>
     <row r="127" ht="15.0" customHeight="1">
-      <c r="G127" s="2"/>
       <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
     </row>
     <row r="128" ht="15.0" customHeight="1">
-      <c r="G128" s="2"/>
       <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
     </row>
     <row r="129" ht="15.0" customHeight="1">
-      <c r="G129" s="2"/>
       <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
     </row>
     <row r="130" ht="15.0" customHeight="1">
-      <c r="G130" s="2"/>
       <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
     </row>
     <row r="131" ht="15.0" customHeight="1">
-      <c r="G131" s="2"/>
       <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
     </row>
     <row r="132" ht="15.0" customHeight="1">
-      <c r="G132" s="2"/>
       <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
     </row>
     <row r="133" ht="15.0" customHeight="1">
-      <c r="G133" s="2"/>
       <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
     </row>
     <row r="134" ht="15.0" customHeight="1">
-      <c r="G134" s="2"/>
       <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
     </row>
     <row r="135" ht="15.0" customHeight="1">
-      <c r="G135" s="2"/>
       <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
     </row>
     <row r="136" ht="15.0" customHeight="1">
-      <c r="G136" s="2"/>
       <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
     </row>
     <row r="137" ht="15.0" customHeight="1">
-      <c r="G137" s="2"/>
       <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
     </row>
     <row r="138" ht="15.0" customHeight="1">
-      <c r="G138" s="2"/>
       <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
     </row>
     <row r="139" ht="15.0" customHeight="1">
-      <c r="G139" s="2"/>
       <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
     </row>
     <row r="140" ht="15.0" customHeight="1">
-      <c r="G140" s="2"/>
       <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
     </row>
     <row r="141" ht="15.0" customHeight="1">
-      <c r="G141" s="2"/>
       <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
     </row>
     <row r="142" ht="15.0" customHeight="1">
-      <c r="G142" s="2"/>
       <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
     </row>
     <row r="143" ht="15.0" customHeight="1">
-      <c r="G143" s="2"/>
       <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
     </row>
     <row r="144" ht="15.0" customHeight="1">
-      <c r="G144" s="2"/>
       <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
     </row>
     <row r="145" ht="15.0" customHeight="1">
-      <c r="G145" s="2"/>
       <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
     </row>
     <row r="146" ht="15.0" customHeight="1">
-      <c r="G146" s="2"/>
       <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
     </row>
     <row r="147" ht="15.0" customHeight="1">
-      <c r="G147" s="2"/>
       <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
     </row>
     <row r="148" ht="15.0" customHeight="1">
-      <c r="G148" s="2"/>
       <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
     </row>
     <row r="149" ht="15.0" customHeight="1">
-      <c r="G149" s="2"/>
       <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
     </row>
     <row r="150" ht="15.0" customHeight="1">
-      <c r="G150" s="2"/>
       <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
     </row>
     <row r="151" ht="15.0" customHeight="1">
-      <c r="G151" s="2"/>
       <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
     </row>
     <row r="152" ht="15.0" customHeight="1">
-      <c r="G152" s="2"/>
       <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
     </row>
     <row r="153" ht="15.0" customHeight="1">
-      <c r="G153" s="2"/>
       <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
     </row>
     <row r="154" ht="15.0" customHeight="1">
-      <c r="G154" s="2"/>
       <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
     </row>
     <row r="155" ht="15.0" customHeight="1">
-      <c r="G155" s="2"/>
       <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
     </row>
     <row r="156" ht="15.0" customHeight="1">
-      <c r="G156" s="2"/>
       <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
     </row>
     <row r="157" ht="15.0" customHeight="1">
-      <c r="G157" s="2"/>
       <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
     </row>
     <row r="158" ht="15.0" customHeight="1">
-      <c r="G158" s="2"/>
       <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
     </row>
     <row r="159" ht="15.0" customHeight="1">
-      <c r="G159" s="2"/>
       <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
     </row>
     <row r="160" ht="15.0" customHeight="1">
-      <c r="G160" s="2"/>
       <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
     </row>
     <row r="161" ht="15.0" customHeight="1">
-      <c r="G161" s="2"/>
       <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
     </row>
     <row r="162" ht="15.0" customHeight="1">
-      <c r="G162" s="2"/>
       <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
     </row>
     <row r="163" ht="15.0" customHeight="1">
-      <c r="G163" s="2"/>
       <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
     </row>
     <row r="164" ht="15.0" customHeight="1">
-      <c r="G164" s="2"/>
       <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
     </row>
     <row r="165" ht="15.0" customHeight="1">
-      <c r="G165" s="2"/>
       <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
     </row>
     <row r="166" ht="15.0" customHeight="1">
-      <c r="G166" s="2"/>
       <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
     </row>
     <row r="167" ht="15.0" customHeight="1">
-      <c r="G167" s="2"/>
       <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
     </row>
     <row r="168" ht="15.0" customHeight="1">
-      <c r="G168" s="2"/>
       <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
     </row>
     <row r="169" ht="15.0" customHeight="1">
-      <c r="G169" s="2"/>
       <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
     </row>
     <row r="170" ht="15.0" customHeight="1">
-      <c r="G170" s="2"/>
       <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
     </row>
     <row r="171" ht="15.0" customHeight="1">
-      <c r="G171" s="2"/>
       <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
     </row>
     <row r="172" ht="15.0" customHeight="1">
-      <c r="G172" s="2"/>
       <c r="H172" s="2"/>
+      <c r="I172" s="2"/>
     </row>
     <row r="173" ht="15.0" customHeight="1">
-      <c r="G173" s="2"/>
       <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
     </row>
     <row r="174" ht="15.0" customHeight="1">
-      <c r="G174" s="2"/>
       <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
     </row>
     <row r="175" ht="15.0" customHeight="1">
-      <c r="G175" s="2"/>
       <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
     </row>
     <row r="176" ht="15.0" customHeight="1">
-      <c r="G176" s="2"/>
       <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
     </row>
     <row r="177" ht="15.0" customHeight="1">
-      <c r="G177" s="2"/>
       <c r="H177" s="2"/>
+      <c r="I177" s="2"/>
     </row>
     <row r="178" ht="15.0" customHeight="1">
-      <c r="G178" s="2"/>
       <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
     </row>
     <row r="179" ht="15.0" customHeight="1">
-      <c r="G179" s="2"/>
       <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
     </row>
     <row r="180" ht="15.0" customHeight="1">
-      <c r="G180" s="2"/>
       <c r="H180" s="2"/>
+      <c r="I180" s="2"/>
     </row>
     <row r="181" ht="15.0" customHeight="1">
-      <c r="G181" s="2"/>
       <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
     </row>
     <row r="182" ht="15.0" customHeight="1">
-      <c r="G182" s="2"/>
       <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
     </row>
     <row r="183" ht="15.0" customHeight="1">
-      <c r="G183" s="2"/>
       <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
     </row>
     <row r="184" ht="15.0" customHeight="1">
-      <c r="G184" s="2"/>
       <c r="H184" s="2"/>
+      <c r="I184" s="2"/>
     </row>
     <row r="185" ht="15.0" customHeight="1">
-      <c r="G185" s="2"/>
       <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
     </row>
     <row r="186" ht="15.0" customHeight="1">
-      <c r="G186" s="2"/>
       <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
     </row>
     <row r="187" ht="15.0" customHeight="1">
-      <c r="G187" s="2"/>
       <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
     </row>
     <row r="188" ht="15.0" customHeight="1">
-      <c r="G188" s="2"/>
       <c r="H188" s="2"/>
+      <c r="I188" s="2"/>
     </row>
     <row r="189" ht="15.0" customHeight="1">
-      <c r="G189" s="2"/>
       <c r="H189" s="2"/>
+      <c r="I189" s="2"/>
     </row>
     <row r="190" ht="15.0" customHeight="1">
-      <c r="G190" s="2"/>
       <c r="H190" s="2"/>
+      <c r="I190" s="2"/>
     </row>
     <row r="191" ht="15.0" customHeight="1">
-      <c r="G191" s="2"/>
       <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
     </row>
     <row r="192" ht="15.0" customHeight="1">
-      <c r="G192" s="2"/>
       <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
     </row>
     <row r="193" ht="15.0" customHeight="1">
-      <c r="G193" s="2"/>
       <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
     </row>
     <row r="194" ht="15.0" customHeight="1">
-      <c r="G194" s="2"/>
       <c r="H194" s="2"/>
+      <c r="I194" s="2"/>
     </row>
     <row r="195" ht="15.0" customHeight="1">
-      <c r="G195" s="2"/>
       <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
     </row>
     <row r="196" ht="15.0" customHeight="1">
-      <c r="G196" s="2"/>
       <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
     </row>
     <row r="197" ht="15.0" customHeight="1">
-      <c r="G197" s="2"/>
       <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
     </row>
     <row r="198" ht="15.0" customHeight="1">
-      <c r="G198" s="2"/>
       <c r="H198" s="2"/>
+      <c r="I198" s="2"/>
     </row>
     <row r="199" ht="15.0" customHeight="1">
-      <c r="G199" s="2"/>
       <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
     </row>
     <row r="200" ht="15.0" customHeight="1">
-      <c r="G200" s="2"/>
       <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
     </row>
     <row r="201" ht="15.0" customHeight="1">
-      <c r="G201" s="2"/>
       <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
     </row>
     <row r="202" ht="15.0" customHeight="1">
-      <c r="G202" s="2"/>
       <c r="H202" s="2"/>
+      <c r="I202" s="2"/>
     </row>
     <row r="203" ht="15.0" customHeight="1">
-      <c r="G203" s="2"/>
       <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
     </row>
     <row r="204" ht="15.0" customHeight="1">
-      <c r="G204" s="2"/>
       <c r="H204" s="2"/>
+      <c r="I204" s="2"/>
     </row>
     <row r="205" ht="15.0" customHeight="1">
-      <c r="G205" s="2"/>
       <c r="H205" s="2"/>
+      <c r="I205" s="2"/>
     </row>
     <row r="206" ht="15.0" customHeight="1">
-      <c r="G206" s="2"/>
       <c r="H206" s="2"/>
+      <c r="I206" s="2"/>
     </row>
     <row r="207" ht="15.0" customHeight="1">
-      <c r="G207" s="2"/>
       <c r="H207" s="2"/>
+      <c r="I207" s="2"/>
     </row>
     <row r="208" ht="15.0" customHeight="1">
-      <c r="G208" s="2"/>
       <c r="H208" s="2"/>
+      <c r="I208" s="2"/>
     </row>
     <row r="209" ht="15.0" customHeight="1">
-      <c r="G209" s="2"/>
       <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
     </row>
     <row r="210" ht="15.0" customHeight="1">
-      <c r="G210" s="2"/>
       <c r="H210" s="2"/>
+      <c r="I210" s="2"/>
     </row>
     <row r="211" ht="15.0" customHeight="1">
-      <c r="G211" s="2"/>
       <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
     </row>
     <row r="212" ht="15.0" customHeight="1">
-      <c r="G212" s="2"/>
       <c r="H212" s="2"/>
+      <c r="I212" s="2"/>
     </row>
     <row r="213" ht="15.0" customHeight="1">
-      <c r="G213" s="2"/>
       <c r="H213" s="2"/>
+      <c r="I213" s="2"/>
     </row>
     <row r="214" ht="15.0" customHeight="1">
-      <c r="G214" s="2"/>
       <c r="H214" s="2"/>
+      <c r="I214" s="2"/>
     </row>
     <row r="215" ht="15.0" customHeight="1">
-      <c r="G215" s="2"/>
       <c r="H215" s="2"/>
+      <c r="I215" s="2"/>
     </row>
     <row r="216" ht="15.0" customHeight="1">
-      <c r="G216" s="2"/>
       <c r="H216" s="2"/>
+      <c r="I216" s="2"/>
     </row>
     <row r="217" ht="15.0" customHeight="1">
-      <c r="G217" s="2"/>
       <c r="H217" s="2"/>
+      <c r="I217" s="2"/>
     </row>
     <row r="218" ht="15.0" customHeight="1">
-      <c r="G218" s="2"/>
       <c r="H218" s="2"/>
+      <c r="I218" s="2"/>
     </row>
     <row r="219" ht="15.0" customHeight="1">
-      <c r="G219" s="2"/>
       <c r="H219" s="2"/>
+      <c r="I219" s="2"/>
     </row>
     <row r="220" ht="15.0" customHeight="1">
-      <c r="G220" s="2"/>
       <c r="H220" s="2"/>
+      <c r="I220" s="2"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
